--- a/runs/run107/NotionalETEOutput107.xlsx
+++ b/runs/run107/NotionalETEOutput107.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND3_State_Update</t>
+    <t>Missile_SOMERSAULT3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND3_138.MISSILE_HIGHWIND3_138</t>
+    <t>MISSILE_SOMERSAULT3_248.MISSILE_SOMERSAULT3_248</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND3</t>
+    <t>MISSILE_SOMERSAULT3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1527.374605668215</v>
+        <v>-1509.74822526033</v>
       </c>
       <c r="J2">
-        <v>1906.114987460308</v>
+        <v>2098.407089571846</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1412.558583700262</v>
+        <v>-1403.056967685662</v>
       </c>
       <c r="J3">
-        <v>1928.673419388293</v>
+        <v>2033.962625278342</v>
       </c>
       <c r="K3">
-        <v>307.026792308783</v>
+        <v>290.0325982798881</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1420.765617321785</v>
+        <v>-1416.828891477685</v>
       </c>
       <c r="J4">
-        <v>1987.301199884043</v>
+        <v>1812.863775618658</v>
       </c>
       <c r="K4">
-        <v>572.258984051317</v>
+        <v>577.6105923905948</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1338.685129244086</v>
+        <v>-1385.461449867512</v>
       </c>
       <c r="J5">
-        <v>1796.664660130941</v>
+        <v>1769.155227125363</v>
       </c>
       <c r="K5">
-        <v>903.1596646168972</v>
+        <v>858.4065611466796</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1362.065791284087</v>
+        <v>-1386.48081586117</v>
       </c>
       <c r="J6">
-        <v>1809.500606707804</v>
+        <v>1873.87677953967</v>
       </c>
       <c r="K6">
-        <v>1091.290210627039</v>
+        <v>1151.751970205316</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1343.759003335093</v>
+        <v>-1349.549619762264</v>
       </c>
       <c r="J7">
-        <v>1781.620647708107</v>
+        <v>1822.125291205074</v>
       </c>
       <c r="K7">
-        <v>1327.863094715406</v>
+        <v>1431.484625561519</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1259.826193963459</v>
+        <v>-1296.399580491277</v>
       </c>
       <c r="J8">
-        <v>1666.606942832475</v>
+        <v>1744.840970140024</v>
       </c>
       <c r="K8">
-        <v>1603.682289468817</v>
+        <v>1541.448196794239</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.53231919681956</v>
+        <v>-97.10989594550907</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1304.699980766538</v>
+        <v>-1233.757309135954</v>
       </c>
       <c r="J9">
-        <v>1738.83309299895</v>
+        <v>1605.264380658527</v>
       </c>
       <c r="K9">
-        <v>1721.590543411475</v>
+        <v>1885.129958874743</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>216.1733555976401</v>
+        <v>223.6831733764143</v>
       </c>
       <c r="G10">
-        <v>-85.71874622557934</v>
+        <v>-87.31717476568193</v>
       </c>
       <c r="H10">
-        <v>858.2400762927447</v>
+        <v>874.6480380783241</v>
       </c>
       <c r="I10">
-        <v>-1296.970713372512</v>
+        <v>-1249.318803161436</v>
       </c>
       <c r="J10">
-        <v>1608.900292212535</v>
+        <v>1595.78627967156</v>
       </c>
       <c r="K10">
-        <v>2089.260914703878</v>
+        <v>2042.685972641995</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>161.1994840321385</v>
+        <v>160.9489846692001</v>
       </c>
       <c r="G11">
-        <v>-69.6236370951663</v>
+        <v>-66.87925187646164</v>
       </c>
       <c r="H11">
-        <v>1075.480863777317</v>
+        <v>1029.874468192714</v>
       </c>
       <c r="I11">
-        <v>-1263.407226891723</v>
+        <v>-1190.34618991013</v>
       </c>
       <c r="J11">
-        <v>1506.226792805526</v>
+        <v>1558.323154260763</v>
       </c>
       <c r="K11">
-        <v>2130.679988583523</v>
+        <v>2276.169441952635</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.8177341377752</v>
+        <v>138.6325371423748</v>
       </c>
       <c r="G12">
-        <v>-48.95282846339988</v>
+        <v>-52.08053725966345</v>
       </c>
       <c r="H12">
-        <v>1134.10438577417</v>
+        <v>1173.812075551367</v>
       </c>
       <c r="I12">
-        <v>-1152.837759516987</v>
+        <v>-1111.923785890472</v>
       </c>
       <c r="J12">
-        <v>1527.559959267087</v>
+        <v>1465.999774964289</v>
       </c>
       <c r="K12">
-        <v>2316.427173338629</v>
+        <v>2267.771306728936</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.497754522878</v>
+        <v>126.0782684739958</v>
       </c>
       <c r="G13">
-        <v>-33.99114878372129</v>
+        <v>-34.15435091402856</v>
       </c>
       <c r="H13">
-        <v>1294.527109630742</v>
+        <v>1284.732668132214</v>
       </c>
       <c r="I13">
-        <v>-1107.650817194429</v>
+        <v>-1090.616263344938</v>
       </c>
       <c r="J13">
-        <v>1446.037870214923</v>
+        <v>1472.174201384603</v>
       </c>
       <c r="K13">
-        <v>2604.092627618593</v>
+        <v>2511.516807301023</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.2031639482447</v>
+        <v>112.9735691368304</v>
       </c>
       <c r="G14">
-        <v>-16.88086106148929</v>
+        <v>-16.5781868662184</v>
       </c>
       <c r="H14">
-        <v>1352.598574389423</v>
+        <v>1372.761278918804</v>
       </c>
       <c r="I14">
-        <v>-1111.904008012673</v>
+        <v>-1070.19592445288</v>
       </c>
       <c r="J14">
-        <v>1443.544468546533</v>
+        <v>1368.937643627326</v>
       </c>
       <c r="K14">
-        <v>2671.91574151875</v>
+        <v>2737.993256977338</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>103.6938134961122</v>
+        <v>97.56299173812489</v>
       </c>
       <c r="G15">
-        <v>-0.91985785414424</v>
+        <v>-0.918507388453057</v>
       </c>
       <c r="H15">
-        <v>1349.347316100818</v>
+        <v>1345.303351657717</v>
       </c>
       <c r="I15">
-        <v>-1047.209115661479</v>
+        <v>-1086.591781853601</v>
       </c>
       <c r="J15">
-        <v>1412.323022505619</v>
+        <v>1337.86466447287</v>
       </c>
       <c r="K15">
-        <v>2873.116105338867</v>
+        <v>2664.868130301131</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>96.00114758342325</v>
+        <v>90.10699433689942</v>
       </c>
       <c r="G16">
-        <v>15.04731189866698</v>
+        <v>15.54709358793315</v>
       </c>
       <c r="H16">
-        <v>1484.014315376406</v>
+        <v>1404.590902799657</v>
       </c>
       <c r="I16">
-        <v>-997.2720380639834</v>
+        <v>-996.3959688266103</v>
       </c>
       <c r="J16">
-        <v>1280.684660543409</v>
+        <v>1366.539182740484</v>
       </c>
       <c r="K16">
-        <v>2747.848959001348</v>
+        <v>2825.046506846356</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.73092632494253</v>
+        <v>87.85553921805182</v>
       </c>
       <c r="G17">
-        <v>33.38570898115073</v>
+        <v>30.83643053216598</v>
       </c>
       <c r="H17">
-        <v>1445.118769954002</v>
+        <v>1448.786196992214</v>
       </c>
       <c r="I17">
-        <v>-958.251751614451</v>
+        <v>-1017.209294048129</v>
       </c>
       <c r="J17">
-        <v>1320.56002708216</v>
+        <v>1304.399497305036</v>
       </c>
       <c r="K17">
-        <v>2930.416008302202</v>
+        <v>3043.422265525872</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.27021410643137</v>
+        <v>85.8717210106355</v>
       </c>
       <c r="G18">
-        <v>46.38857633983532</v>
+        <v>50.72237008437271</v>
       </c>
       <c r="H18">
-        <v>1438.737637119779</v>
+        <v>1428.159314803049</v>
       </c>
       <c r="I18">
-        <v>-950.1398085952396</v>
+        <v>-936.5009663524401</v>
       </c>
       <c r="J18">
-        <v>1241.481099465448</v>
+        <v>1178.48874922041</v>
       </c>
       <c r="K18">
-        <v>3118.166876392466</v>
+        <v>3110.765880078092</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>80.26950487933912</v>
+        <v>80.63388969196207</v>
       </c>
       <c r="G19">
-        <v>66.85937401212146</v>
+        <v>63.7433263163569</v>
       </c>
       <c r="H19">
-        <v>1569.630734081128</v>
+        <v>1593.110204706701</v>
       </c>
       <c r="I19">
-        <v>-908.1121396290599</v>
+        <v>-846.4904118706169</v>
       </c>
       <c r="J19">
-        <v>1152.750613077346</v>
+        <v>1151.472768520757</v>
       </c>
       <c r="K19">
-        <v>3254.523772336716</v>
+        <v>3101.284993055807</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.29659549635865</v>
+        <v>76.27902135282213</v>
       </c>
       <c r="G20">
-        <v>78.65315571812958</v>
+        <v>78.61778321782371</v>
       </c>
       <c r="H20">
-        <v>1541.189953934273</v>
+        <v>1500.212478133253</v>
       </c>
       <c r="I20">
-        <v>-847.9704569311224</v>
+        <v>-798.0076053995623</v>
       </c>
       <c r="J20">
-        <v>1093.682257225871</v>
+        <v>1107.700426364793</v>
       </c>
       <c r="K20">
-        <v>3248.019598275778</v>
+        <v>3098.758462083904</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>74.34988444135101</v>
+        <v>68.74312345986222</v>
       </c>
       <c r="G21">
-        <v>97.27163686976486</v>
+        <v>96.61034708680182</v>
       </c>
       <c r="H21">
-        <v>1644.575767461926</v>
+        <v>1573.607992720068</v>
       </c>
       <c r="I21">
-        <v>-812.4606156459545</v>
+        <v>-818.5582422071485</v>
       </c>
       <c r="J21">
-        <v>1103.436634219858</v>
+        <v>1079.09647498777</v>
       </c>
       <c r="K21">
-        <v>3227.002496756609</v>
+        <v>3200.661110184954</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.57689521567977</v>
+        <v>69.43087419247075</v>
       </c>
       <c r="G22">
-        <v>119.4957464452879</v>
+        <v>116.0968145154599</v>
       </c>
       <c r="H22">
-        <v>1652.286957156905</v>
+        <v>1608.261988570526</v>
       </c>
       <c r="I22">
-        <v>-765.3549429827133</v>
+        <v>-728.4258929142836</v>
       </c>
       <c r="J22">
-        <v>1050.302004667099</v>
+        <v>1048.69924176498</v>
       </c>
       <c r="K22">
-        <v>3061.810750090563</v>
+        <v>3102.943012863753</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.59384465320412</v>
+        <v>67.53074084210881</v>
       </c>
       <c r="G23">
-        <v>128.656004067403</v>
+        <v>130.0125192129299</v>
       </c>
       <c r="H23">
-        <v>1643.850709121573</v>
+        <v>1656.180347778884</v>
       </c>
       <c r="I23">
-        <v>-679.4386701283837</v>
+        <v>-698.4628801313653</v>
       </c>
       <c r="J23">
-        <v>968.8260949395764</v>
+        <v>977.473201572911</v>
       </c>
       <c r="K23">
-        <v>3290.835544875247</v>
+        <v>3127.489744107437</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.72853489378741</v>
+        <v>64.00437812098649</v>
       </c>
       <c r="G24">
-        <v>142.3589563024003</v>
+        <v>153.7746347932121</v>
       </c>
       <c r="H24">
-        <v>1677.000115152816</v>
+        <v>1705.009049085573</v>
       </c>
       <c r="I24">
-        <v>-679.999786199773</v>
+        <v>-641.7375019673093</v>
       </c>
       <c r="J24">
-        <v>914.0555114502214</v>
+        <v>963.676756834099</v>
       </c>
       <c r="K24">
-        <v>3098.074109707861</v>
+        <v>3052.509628088961</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>64.26560879230003</v>
+        <v>60.93994183817824</v>
       </c>
       <c r="G25">
-        <v>170.3332527209805</v>
+        <v>168.9856759481889</v>
       </c>
       <c r="H25">
-        <v>1718.49524803367</v>
+        <v>1747.813034907384</v>
       </c>
       <c r="I25">
-        <v>-591.2036545874593</v>
+        <v>-610.3662121999864</v>
       </c>
       <c r="J25">
-        <v>922.6060360327473</v>
+        <v>920.1707961191365</v>
       </c>
       <c r="K25">
-        <v>3209.442545289551</v>
+        <v>3253.339298210479</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.25692095898233</v>
+        <v>58.57461493816422</v>
       </c>
       <c r="G26">
-        <v>188.8215729445785</v>
+        <v>182.2336308000442</v>
       </c>
       <c r="H26">
-        <v>1733.909432332097</v>
+        <v>1674.116825580065</v>
       </c>
       <c r="I26">
-        <v>-542.3697372382029</v>
+        <v>-572.060718226161</v>
       </c>
       <c r="J26">
-        <v>802.8985755261115</v>
+        <v>852.0165760166767</v>
       </c>
       <c r="K26">
-        <v>3058.236778460282</v>
+        <v>3218.660727957686</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.65891783835662</v>
+        <v>57.66809755035976</v>
       </c>
       <c r="G27">
-        <v>193.5321295462973</v>
+        <v>205.3267960603869</v>
       </c>
       <c r="H27">
-        <v>1631.618362038022</v>
+        <v>1739.495942875883</v>
       </c>
       <c r="I27">
-        <v>-469.2856171528331</v>
+        <v>-496.7387597692203</v>
       </c>
       <c r="J27">
-        <v>755.3315147384699</v>
+        <v>788.0877401756751</v>
       </c>
       <c r="K27">
-        <v>3050.955346861403</v>
+        <v>2974.927004510914</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.52373561793053</v>
+        <v>57.99999608793251</v>
       </c>
       <c r="G28">
-        <v>216.6543138749252</v>
+        <v>210.7486824007882</v>
       </c>
       <c r="H28">
-        <v>1790.276513403119</v>
+        <v>1701.555398500375</v>
       </c>
       <c r="I28">
-        <v>-453.9792408307558</v>
+        <v>-452.2625489778106</v>
       </c>
       <c r="J28">
-        <v>742.1078452977448</v>
+        <v>727.1549803733741</v>
       </c>
       <c r="K28">
-        <v>3010.054434363664</v>
+        <v>2874.599112567653</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.78136756056168</v>
+        <v>56.42073119393105</v>
       </c>
       <c r="G29">
-        <v>219.2819701024748</v>
+        <v>233.2388923475707</v>
       </c>
       <c r="H29">
-        <v>1823.446480099889</v>
+        <v>1656.827591558527</v>
       </c>
       <c r="I29">
-        <v>-382.5286965141296</v>
+        <v>-394.4844344457661</v>
       </c>
       <c r="J29">
-        <v>674.8970836999695</v>
+        <v>701.6624158341067</v>
       </c>
       <c r="K29">
-        <v>2982.012541161126</v>
+        <v>2841.09205500837</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.46423536713488</v>
+        <v>53.90497827372997</v>
       </c>
       <c r="G30">
-        <v>254.838994694416</v>
+        <v>250.3737161597208</v>
       </c>
       <c r="H30">
-        <v>1738.096477993999</v>
+        <v>1783.414450140595</v>
       </c>
       <c r="I30">
-        <v>-317.8698538771177</v>
+        <v>-337.9025833792169</v>
       </c>
       <c r="J30">
-        <v>614.0669239290301</v>
+        <v>640.5645855426909</v>
       </c>
       <c r="K30">
-        <v>2726.387105210539</v>
+        <v>2804.04231542476</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.15991023428652</v>
+        <v>51.60769671547224</v>
       </c>
       <c r="G31">
-        <v>270.2900006733819</v>
+        <v>254.0766654695212</v>
       </c>
       <c r="H31">
-        <v>1703.096229766142</v>
+        <v>1758.547306187361</v>
       </c>
       <c r="I31">
-        <v>-261.4292344687282</v>
+        <v>-274.7887252209922</v>
       </c>
       <c r="J31">
-        <v>567.5208672130149</v>
+        <v>578.215073925692</v>
       </c>
       <c r="K31">
-        <v>2556.813494494742</v>
+        <v>2527.029322364555</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.70629996249704</v>
+        <v>52.26158712140267</v>
       </c>
       <c r="G32">
-        <v>283.1583394383329</v>
+        <v>271.423463767806</v>
       </c>
       <c r="H32">
-        <v>1850.38561658399</v>
+        <v>1820.123911094749</v>
       </c>
       <c r="I32">
-        <v>-214.1915123377408</v>
+        <v>-198.7696919683178</v>
       </c>
       <c r="J32">
-        <v>527.4379549050886</v>
+        <v>556.7526269847391</v>
       </c>
       <c r="K32">
-        <v>2511.285322216019</v>
+        <v>2449.352686649242</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.50623933078113</v>
+        <v>51.2431163349324</v>
       </c>
       <c r="G33">
-        <v>310.5425479197767</v>
+        <v>293.5772989291926</v>
       </c>
       <c r="H33">
-        <v>1722.950069671847</v>
+        <v>1779.286459462142</v>
       </c>
       <c r="I33">
-        <v>-143.1142075767815</v>
+        <v>-139.6892384746444</v>
       </c>
       <c r="J33">
-        <v>474.1043518373096</v>
+        <v>504.7608943862876</v>
       </c>
       <c r="K33">
-        <v>2421.815506447067</v>
+        <v>2367.075688332342</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.32695490708834</v>
+        <v>49.50016707410467</v>
       </c>
       <c r="G34">
-        <v>303.8447436839724</v>
+        <v>315.2689191747099</v>
       </c>
       <c r="H34">
-        <v>1781.298111030207</v>
+        <v>1758.627494686054</v>
       </c>
       <c r="I34">
-        <v>-81.5012752246746</v>
+        <v>-87.0688768259072</v>
       </c>
       <c r="J34">
-        <v>452.7033706517409</v>
+        <v>455.3490902829377</v>
       </c>
       <c r="K34">
-        <v>2258.10378487898</v>
+        <v>2210.074234957778</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.66266861965041</v>
+        <v>46.28043659466636</v>
       </c>
       <c r="G35">
-        <v>327.3993886023118</v>
+        <v>325.7391614234035</v>
       </c>
       <c r="H35">
-        <v>1866.438668306555</v>
+        <v>1879.581560432084</v>
       </c>
       <c r="I35">
-        <v>-18.48975489935384</v>
+        <v>-18.69943246020726</v>
       </c>
       <c r="J35">
-        <v>412.412903477161</v>
+        <v>397.9154923737695</v>
       </c>
       <c r="K35">
-        <v>2079.869754348535</v>
+        <v>2006.843958021241</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.69165324577508</v>
+        <v>48.40985659429452</v>
       </c>
       <c r="G36">
-        <v>331.4145123316799</v>
+        <v>356.7235700909678</v>
       </c>
       <c r="H36">
-        <v>1819.48977571862</v>
+        <v>1794.001010448294</v>
       </c>
       <c r="I36">
-        <v>46.20205494881697</v>
+        <v>49.68173014054348</v>
       </c>
       <c r="J36">
-        <v>337.629302610223</v>
+        <v>344.8175970422184</v>
       </c>
       <c r="K36">
-        <v>1894.153983370184</v>
+        <v>1891.392836655326</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.23136384131803</v>
+        <v>47.73458299948588</v>
       </c>
       <c r="G37">
-        <v>348.4095970201937</v>
+        <v>361.0152750366657</v>
       </c>
       <c r="H37">
-        <v>1802.058932618811</v>
+        <v>1792.487210982983</v>
       </c>
       <c r="I37">
-        <v>120.126597460333</v>
+        <v>116.202129906734</v>
       </c>
       <c r="J37">
-        <v>311.4734059309238</v>
+        <v>298.6999407057222</v>
       </c>
       <c r="K37">
-        <v>1613.116902205503</v>
+        <v>1582.722967392355</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.68994549571657</v>
+        <v>43.94732804460171</v>
       </c>
       <c r="G38">
-        <v>369.0168556848819</v>
+        <v>374.1244360335626</v>
       </c>
       <c r="H38">
-        <v>1767.549715838209</v>
+        <v>1814.900592250925</v>
       </c>
       <c r="I38">
-        <v>189.308335406486</v>
+        <v>176.2820211869013</v>
       </c>
       <c r="J38">
-        <v>239.065334644403</v>
+        <v>242.825593221336</v>
       </c>
       <c r="K38">
-        <v>1377.156286336414</v>
+        <v>1403.705801445241</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.51945024186289</v>
+        <v>45.86227210755283</v>
       </c>
       <c r="G39">
-        <v>407.4222615017745</v>
+        <v>376.1098467627122</v>
       </c>
       <c r="H39">
-        <v>1799.002688478442</v>
+        <v>1940.966634703306</v>
       </c>
       <c r="I39">
-        <v>242.9517057632012</v>
+        <v>246.3393652806543</v>
       </c>
       <c r="J39">
-        <v>205.6738679948019</v>
+        <v>208.6500891964007</v>
       </c>
       <c r="K39">
-        <v>1148.717328996968</v>
+        <v>1175.636883592642</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.56776993589222</v>
+        <v>45.39284371417895</v>
       </c>
       <c r="G40">
-        <v>408.1679780896065</v>
+        <v>418.7714471792724</v>
       </c>
       <c r="H40">
-        <v>1814.151332045516</v>
+        <v>1871.324522806322</v>
       </c>
       <c r="I40">
-        <v>316.7383810056885</v>
+        <v>318.4834730587227</v>
       </c>
       <c r="J40">
-        <v>148.4961542864896</v>
+        <v>155.2864538468369</v>
       </c>
       <c r="K40">
-        <v>911.5030671672034</v>
+        <v>886.1678166058189</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.83525777908503</v>
+        <v>43.92154635990612</v>
       </c>
       <c r="G41">
-        <v>431.5669140479842</v>
+        <v>428.9059284051715</v>
       </c>
       <c r="H41">
-        <v>1888.135797655805</v>
+        <v>1928.106457389332</v>
       </c>
       <c r="I41">
-        <v>405.0040086840708</v>
+        <v>407.7142680430096</v>
       </c>
       <c r="J41">
-        <v>102.1754691493565</v>
+        <v>97.67430830739671</v>
       </c>
       <c r="K41">
-        <v>618.0112944951703</v>
+        <v>621.9400712541782</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.5269131669374</v>
+        <v>42.2734326748101</v>
       </c>
       <c r="G42">
-        <v>439.0326605007556</v>
+        <v>463.3311172205398</v>
       </c>
       <c r="H42">
-        <v>1917.84950384492</v>
+        <v>1916.645064201112</v>
       </c>
       <c r="I42">
-        <v>477.4377559998684</v>
+        <v>501.3670736499226</v>
       </c>
       <c r="J42">
-        <v>54.22845344047233</v>
+        <v>55.68712851226426</v>
       </c>
       <c r="K42">
-        <v>340.519366851877</v>
+        <v>335.5109857941081</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.10145535004599</v>
+        <v>42.65711557294217</v>
       </c>
       <c r="G43">
-        <v>470.6813137385837</v>
+        <v>479.4525188474665</v>
       </c>
       <c r="H43">
-        <v>1913.329195523994</v>
+        <v>1902.971264978444</v>
       </c>
       <c r="I43">
-        <v>536.7705225298851</v>
+        <v>576.8633006365811</v>
       </c>
       <c r="J43">
-        <v>5.461328878060348</v>
+        <v>5.523986476343624</v>
       </c>
       <c r="K43">
-        <v>35.33694448849005</v>
+        <v>33.58456341781903</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.75383579194224</v>
+        <v>42.16901555205139</v>
       </c>
       <c r="G44">
-        <v>464.9701133749461</v>
+        <v>477.8183565039851</v>
       </c>
       <c r="H44">
-        <v>1865.464865220133</v>
+        <v>1961.466259345966</v>
       </c>
       <c r="I44">
-        <v>644.4206650954739</v>
+        <v>668.3019320757944</v>
       </c>
       <c r="J44">
-        <v>-44.21495620287175</v>
+        <v>-42.95482025391382</v>
       </c>
       <c r="K44">
-        <v>-293.3197354010159</v>
+        <v>-278.1371158794277</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.1450433538465</v>
+        <v>41.87049873206708</v>
       </c>
       <c r="G45">
-        <v>484.4797869917259</v>
+        <v>514.6147393168714</v>
       </c>
       <c r="H45">
-        <v>1826.289363640572</v>
+        <v>1915.259124634326</v>
       </c>
       <c r="I45">
-        <v>742.85979078117</v>
+        <v>707.0208941373252</v>
       </c>
       <c r="J45">
-        <v>-91.67399748297794</v>
+        <v>-90.02274083668456</v>
       </c>
       <c r="K45">
-        <v>-624.4071626946177</v>
+        <v>-613.7092970415414</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.6384516340156</v>
+        <v>39.482404222629</v>
       </c>
       <c r="G46">
-        <v>485.8110493384983</v>
+        <v>533.5963342498111</v>
       </c>
       <c r="H46">
-        <v>1934.275367924494</v>
+        <v>1866.432102342266</v>
       </c>
       <c r="I46">
-        <v>844.080793805428</v>
+        <v>781.2721034549005</v>
       </c>
       <c r="J46">
-        <v>-141.9867198368254</v>
+        <v>-137.7135334288858</v>
       </c>
       <c r="K46">
-        <v>-1009.822036931211</v>
+        <v>-1002.93496505528</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.43005044243876</v>
+        <v>39.73226657138765</v>
       </c>
       <c r="G47">
-        <v>529.873874190146</v>
+        <v>516.094459973609</v>
       </c>
       <c r="H47">
-        <v>1905.695839216949</v>
+        <v>1997.21292651637</v>
       </c>
       <c r="I47">
-        <v>909.7542776927918</v>
+        <v>918.6454496736742</v>
       </c>
       <c r="J47">
-        <v>-191.3697579730673</v>
+        <v>-192.1320560711893</v>
       </c>
       <c r="K47">
-        <v>-1277.237946538688</v>
+        <v>-1290.197009980732</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.10681338668904</v>
+        <v>40.02018198761986</v>
       </c>
       <c r="G48">
-        <v>554.5227155758913</v>
+        <v>565.343793877664</v>
       </c>
       <c r="H48">
-        <v>1868.816598413674</v>
+        <v>1986.526064264824</v>
       </c>
       <c r="I48">
-        <v>976.6240736684151</v>
+        <v>1016.078704960991</v>
       </c>
       <c r="J48">
-        <v>-231.064456925622</v>
+        <v>-237.703799633404</v>
       </c>
       <c r="K48">
-        <v>-1635.614611852184</v>
+        <v>-1762.911638758095</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.75413652830652</v>
+        <v>38.47791937504489</v>
       </c>
       <c r="G49">
-        <v>545.8878154344836</v>
+        <v>567.0650906476627</v>
       </c>
       <c r="H49">
-        <v>2008.267905543374</v>
+        <v>1859.475643637009</v>
       </c>
       <c r="I49">
-        <v>1113.638555081499</v>
+        <v>1106.987323568243</v>
       </c>
       <c r="J49">
-        <v>-276.161645702045</v>
+        <v>-276.7086918405433</v>
       </c>
       <c r="K49">
-        <v>-2186.93194126346</v>
+        <v>-2034.705550895966</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.38641158655597</v>
+        <v>39.68406434000828</v>
       </c>
       <c r="G50">
-        <v>563.9765060433884</v>
+        <v>558.1181828259971</v>
       </c>
       <c r="H50">
-        <v>1950.020240840671</v>
+        <v>1994.71533250398</v>
       </c>
       <c r="I50">
-        <v>1170.268063381786</v>
+        <v>1207.330621580916</v>
       </c>
       <c r="J50">
-        <v>-340.6925128942227</v>
+        <v>-333.6855708836603</v>
       </c>
       <c r="K50">
-        <v>-2587.273499307546</v>
+        <v>-2390.372591750806</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.37463692775236</v>
+        <v>39.71830699039906</v>
       </c>
       <c r="G51">
-        <v>619.5714449923701</v>
+        <v>604.8458517609082</v>
       </c>
       <c r="H51">
-        <v>2046.31244667924</v>
+        <v>1934.861095219591</v>
       </c>
       <c r="I51">
-        <v>1278.713935927352</v>
+        <v>1285.90925890063</v>
       </c>
       <c r="J51">
-        <v>-377.2364496064415</v>
+        <v>-388.8861094099418</v>
       </c>
       <c r="K51">
-        <v>-3009.43788819964</v>
+        <v>-2965.706965033825</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.50828081563103</v>
+        <v>35.66275518708039</v>
       </c>
       <c r="G52">
-        <v>607.2154496002576</v>
+        <v>596.134814104272</v>
       </c>
       <c r="H52">
-        <v>1907.302624213032</v>
+        <v>1970.153791957912</v>
       </c>
       <c r="I52">
-        <v>1308.116255939105</v>
+        <v>1355.52585922963</v>
       </c>
       <c r="J52">
-        <v>-411.6605492624512</v>
+        <v>-419.1234109132604</v>
       </c>
       <c r="K52">
-        <v>-3260.467451892977</v>
+        <v>-3488.736435621849</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.91344182648636</v>
+        <v>37.04388738744952</v>
       </c>
       <c r="G53">
-        <v>642.4977342453714</v>
+        <v>631.1729630518189</v>
       </c>
       <c r="H53">
-        <v>2068.174984579095</v>
+        <v>1934.309732132508</v>
       </c>
       <c r="I53">
-        <v>1512.422253998672</v>
+        <v>1412.755396591398</v>
       </c>
       <c r="J53">
-        <v>-485.4602805360487</v>
+        <v>-478.3418336631277</v>
       </c>
       <c r="K53">
-        <v>-3739.660063111406</v>
+        <v>-4002.175526623783</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.17467112608715</v>
+        <v>35.29893624499361</v>
       </c>
       <c r="G54">
-        <v>651.1970504453982</v>
+        <v>652.0572323199683</v>
       </c>
       <c r="H54">
-        <v>1931.563868823901</v>
+        <v>2056.553920012177</v>
       </c>
       <c r="I54">
-        <v>1509.370359780984</v>
+        <v>1512.614149086557</v>
       </c>
       <c r="J54">
-        <v>-535.6869602280527</v>
+        <v>-505.2341754691963</v>
       </c>
       <c r="K54">
-        <v>-4425.76180168757</v>
+        <v>-4367.377355889169</v>
       </c>
     </row>
   </sheetData>
